--- a/www/terminologies/ValueSet-JDV-J54-Profession-ROR.xlsx
+++ b/www/terminologies/ValueSet-JDV-J54-Profession-ROR.xlsx
@@ -12,13 +12,12 @@
     <sheet name="Include #2" r:id="rId6" sheetId="4"/>
     <sheet name="Include #3" r:id="rId7" sheetId="5"/>
     <sheet name="Include #4" r:id="rId8" sheetId="6"/>
-    <sheet name="Include #5" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="141">
   <si>
     <t>Property</t>
   </si>
@@ -41,7 +40,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20200626120000</t>
+    <t>20250523120000</t>
   </si>
   <si>
     <t>Name</t>
@@ -68,7 +67,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2020-06-26T12:00:00+01:00</t>
+    <t>2025-05-23T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -77,6 +76,12 @@
     <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris</t>
   </si>
   <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -287,21 +292,6 @@
     <t>https://mos.esante.gouv.fr/NOS/TRE_G15-ProfessionSante/FHIR/TRE-G15-ProfessionSante</t>
   </si>
   <si>
-    <t>Médecin en formation</t>
-  </si>
-  <si>
-    <t>Pharmacien en formation</t>
-  </si>
-  <si>
-    <t>Chirurgien-Dentiste en formation</t>
-  </si>
-  <si>
-    <t>Sage-Femme en formation</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_G16-ProfessionFormation/FHIR/TRE-G16-ProfessionFormation</t>
-  </si>
-  <si>
     <t>41</t>
   </si>
   <si>
@@ -423,6 +413,18 @@
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R96-AutreFonctionSanitaire/FHIR/TRE-R96-AutreFonctionSanitaire</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>Coordonnateur de parcours</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>Gestionnaire alertes et urgences sanitaires</t>
   </si>
   <si>
     <t>350</t>
@@ -571,7 +573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -671,20 +673,28 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -706,266 +716,266 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -974,6 +984,143 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -987,58 +1134,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>89</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>90</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>92</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>93</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1046,9 +1193,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1060,122 +1207,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>95</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>97</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>99</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1183,7 +1258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -1197,180 +1272,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>127</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>134</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
